--- a/medicine/Handicap/Conception_universelle/Conception_universelle.xlsx
+++ b/medicine/Handicap/Conception_universelle/Conception_universelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La conception universelle, également appelée conception pour tous, design universel, design inclusif ou encore design trans-générationnel, est la conception de tout aménagement, produit, équipement, programme ou service qui puisse être utilisé par toute personne, sans nécessiter ni d'adaptation ni de conception spéciale, et ce quels que soient son sexe, son âge, sa situation ou son handicap.
 Cette notion renvoie à l'accessibilité et est mentionnée dans la Convention relative aux droits des personnes handicapées. 
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1950 et 1960, des collectifs défendent l'accessibilité dans le domaine du bâti. Aux Etats-Unis par exemple, le barrier free movement[1] contribue à la définition de standards d'accessibilité du bâtiment. Cela amène aux premières lois d'accessibilité des bâtiments publics dans les années 1970 et 1980. 
-En France, la loi de 1975[2] prévoit l’accessibilité des bâtiments publics et des transports. La loi de 2005[3] étend cette accessibilité à tous les domaines de la vie sociale. Bien que l'accessibilité du numérique[4] ait fait l'objet de descriptions très précises, l'accessibilité universelle est loin d'être une réalité aujourd'hui. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1950 et 1960, des collectifs défendent l'accessibilité dans le domaine du bâti. Aux Etats-Unis par exemple, le barrier free movement contribue à la définition de standards d'accessibilité du bâtiment. Cela amène aux premières lois d'accessibilité des bâtiments publics dans les années 1970 et 1980. 
+En France, la loi de 1975 prévoit l’accessibilité des bâtiments publics et des transports. La loi de 2005 étend cette accessibilité à tous les domaines de la vie sociale. Bien que l'accessibilité du numérique ait fait l'objet de descriptions très précises, l'accessibilité universelle est loin d'être une réalité aujourd'hui. 
 En parallèle de cette évolution législative, ce sont les méthodes de la conception universelle qui vont progressivement se préciser.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Les principes de la conception universelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1997, la fondation Design for all a publié une série de sept principes permettant de guider les concepteurs vers la conception universelle : 
 Principe 1 : utilisation équitable ;
@@ -555,7 +571,7 @@
 Principe 5 : tolérance pour l’erreur ;
 Principe 6 : effort physique minimal ;
 Principe 7 : dimensions et espace libre pour l’approche et l’utilisation.
-Ces principes peuvent se résumer ainsi [5]  : 
+Ces principes peuvent se résumer ainsi   : 
 </t>
         </is>
       </c>
@@ -584,51 +600,124 @@
           <t>Déployer la conception universelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La conception universelle répond aux besoins de tous. Ses défenseurs arguent qu'elle permet de concevoir des produits, des services et des environnements plus confortables pour tous, et non uniquement pour les personnes en situation de handicap. Partant de ce postulat, plusieurs méthodes sont élaborées pour implémenter les principes de la conception universelle.
-La méthode HUMBLE
-Dans leur méthode HUMBLE, Aragall et Montana[6] abordent la conception universelle comme une stratégie d'entreprise. Ils proposent ainsi 6 étapes : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conception_universelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conception_universelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Déployer la conception universelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La méthode HUMBLE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans leur méthode HUMBLE, Aragall et Montana abordent la conception universelle comme une stratégie d'entreprise. Ils proposent ainsi 6 étapes : 
 mettre en avant les opportunités de la conception universelle
 identifier les utilisateurs
 surveiller l'interaction
 sélectionner les options
 définir les solutions
 communiquer efficacement
-évaluer le succès
-La co-conception
-Pour certains, concevoir universel implique de faire participer les personnes en situation de handicap au processus de conception[7]. On parle de co-conception, de co-design ou de design participatif. En pratique, il s'agit de faire participer des utilisateurs à la réflexion sur le produit ou au test du produit.
+évaluer le succès</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conception_universelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conception_universelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Déployer la conception universelle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La co-conception</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour certains, concevoir universel implique de faire participer les personnes en situation de handicap au processus de conception. On parle de co-conception, de co-design ou de design participatif. En pratique, il s'agit de faire participer des utilisateurs à la réflexion sur le produit ou au test du produit.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Conception_universelle</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Conception_universelle</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les limites de la conception universelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La conception universelle, en cherchant à répondre à une multitude de besoins, peut paradoxalement pousser vers une complexification de l'innovation [8]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La conception universelle, en cherchant à répondre à une multitude de besoins, peut paradoxalement pousser vers une complexification de l'innovation 
 Tout en reconnaissant l'intérêt d'une telle approche, Rob Imrie (2004) souligne la nécessité de ne pas oublier que les dimensions sociales et économiques jouent un rôle central dans la production du handicap.
 </t>
         </is>
